--- a/設計書/画面レイアウト/ログイン.xlsx
+++ b/設計書/画面レイアウト/ログイン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5EC0A5-59C2-48E7-8697-6C39E00EC57C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9C0488-0A4B-4F48-AD9C-62916DB6200A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="2800" windowWidth="10200" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G1ログイン画面" sheetId="28" r:id="rId1"/>
@@ -24,38 +24,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Cat's</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>サブシステム名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面名</t>
@@ -65,7 +65,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成日</t>
@@ -75,14 +75,14 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>更新日</t>
@@ -92,11 +92,11 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>操作手順</t>
@@ -106,39 +106,39 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>識別ID</t>
     <rPh sb="0" eb="2">
       <t>シキベツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ラベル</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>部品タイプ</t>
     <rPh sb="0" eb="2">
       <t>ブヒン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
       <t>ゾクセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>桁数</t>
     <rPh sb="0" eb="2">
       <t>ケタスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>表示位置</t>
@@ -148,21 +148,21 @@
     <rPh sb="2" eb="4">
       <t>イチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>設定元</t>
     <rPh sb="0" eb="3">
       <t>セッテイモト</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>設定先</t>
     <rPh sb="0" eb="3">
       <t>セッテイサキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>部品の処理概要</t>
@@ -175,18 +175,18 @@
     <rPh sb="5" eb="7">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>小村</t>
     <rPh sb="0" eb="2">
       <t>コムラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>学籍番号</t>
@@ -196,15 +196,15 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テキストボックス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録</t>
@@ -214,19 +214,19 @@
     <rPh sb="2" eb="4">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Login</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>リンク</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ボタン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>学籍番号を入力する</t>
@@ -239,18 +239,18 @@
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワードを入力する</t>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>エラーメッセージ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>正しい情報が入力されなかった際のメッセージ</t>
@@ -266,7 +266,7 @@
     <rPh sb="14" eb="15">
       <t>サイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会員登録画面に遷移するリンク</t>
@@ -282,22 +282,18 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>G1</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>9/06</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ホーム画面に遷移するボタン</t>
@@ -307,109 +303,162 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>.メールアドレスを入力</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>.パスワードを入力</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>.Loginを押下　→　ホーム画面へ</t>
-    <rPh sb="7" eb="8">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>.新規登録を押下　→　会員登録画面へ</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>.以下の場合はエラーメッセージを出す</t>
-    <rPh sb="1" eb="3">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>①正しい学籍番号、パスワードが入力されなかった場合</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>→"敷地内でログインしてください"というエラーメッセージを表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>②位置情報を使用し既定の敷地外でログインした場合は</t>
-    <rPh sb="1" eb="3">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シキチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2019/9/6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①学籍番号を入力する</t>
+    <rPh sb="1" eb="3">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>②パスワードを入力する</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>④Loginを押下する</t>
+    <rPh sb="7" eb="8">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学籍番号とパスワードが一致し、かつ位置情報を使い既定の敷地内にいる場合</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シキチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→ホーム画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学籍番号またパスワードが一致しない場合</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→エラーメッセージを表示する</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敷地外でログインしようとした場合</t>
+    <rPh sb="0" eb="2">
+      <t>シキチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（敷地内でログインしてください）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（正しい学籍番号、パスワードを入力してください）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>③新規登録のリンクを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→会員登録画面へ遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -419,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -437,12 +486,6 @@
       <sz val="11"/>
       <name val="明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -651,165 +694,169 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
@@ -888,6 +935,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF29FF"/>
+      <color rgb="FFFFFDFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -928,8 +979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241904" y="766997"/>
-          <a:ext cx="4634493" cy="5193878"/>
+          <a:off x="241904" y="784975"/>
+          <a:ext cx="4672174" cy="5313572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,228 +1169,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171823</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>97118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>141940</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BB8F55-5246-48C0-920A-E39CB916DE68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1875117" y="1553883"/>
-          <a:ext cx="1105647" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
-            <a:t>Login</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>119530</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83FCCD1-F3AA-4C22-B7D9-715BDEAF521A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1255059" y="3077882"/>
-          <a:ext cx="2263588" cy="239059"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>学籍番号</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104587</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80EE422-0E33-4DFF-9338-47DD2485B70A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1262530" y="3518646"/>
-          <a:ext cx="2271058" cy="239059"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>                        Pasword</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>82177</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
+      <xdr:colOff>131023</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119118</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1255058" cy="292452"/>
     <xdr:sp macro="" textlink="">
@@ -1355,7 +1190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1785471" y="3974352"/>
+          <a:off x="1847616" y="4501316"/>
           <a:ext cx="1255058" cy="292452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1396,77 +1231,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>261470</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>82178</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84F2473-5152-4A64-BBDA-80F56124E330}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1964764" y="4519707"/>
-          <a:ext cx="791883" cy="358588"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>   Login</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1548,16 +1312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241903</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230274</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57436</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277977</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66292</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1568,12 +1332,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3364609" y="3085353"/>
-          <a:ext cx="863744" cy="154554"/>
+          <a:off x="3686769" y="3280355"/>
+          <a:ext cx="335744" cy="137690"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1598,16 +1365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>249375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12468</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229158</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>261472</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10139</xdr:rowOff>
+      <xdr:colOff>10904</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1618,12 +1385,16 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3372081" y="3508703"/>
-          <a:ext cx="863744" cy="154554"/>
+          <a:off x="3685653" y="3855260"/>
+          <a:ext cx="357828" cy="142966"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1648,23 +1419,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>274775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7986</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2989</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>5657</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線コネクタ 39">
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF524D14-BE3A-4385-A005-839022171FBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CD12E3-5A99-4241-8C5D-0F346D975191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,8 +1443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2829716" y="3974868"/>
-          <a:ext cx="863744" cy="154554"/>
+          <a:off x="4243294" y="2286001"/>
+          <a:ext cx="321235" cy="194234"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1698,272 +1469,286 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>277762</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>105764</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132582</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>34890</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線コネクタ 40">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CD12E3-5A99-4241-8C5D-0F346D975191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7675A56-EC3D-40AA-BC65-347647B9DC00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3968233" y="2286000"/>
-          <a:ext cx="596296" cy="374705"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2822222" y="4813265"/>
+          <a:ext cx="697027" cy="422577"/>
+          <a:chOff x="2847033" y="4443430"/>
+          <a:chExt cx="704780" cy="420251"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="直線コネクタ 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C82237-CE61-4F7B-A329-8AA5F6183B4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="46" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2847033" y="4653556"/>
+            <a:ext cx="338283" cy="140346"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146D4A5D-6A75-49A3-A351-4655740F5FDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3185316" y="4443430"/>
+            <a:ext cx="366497" cy="420251"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>243398</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>155904</xdr:rowOff>
+      <xdr:colOff>260819</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>255495</xdr:colOff>
+      <xdr:colOff>13957</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>153575</xdr:rowOff>
+      <xdr:rowOff>23679</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線コネクタ 41">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C82237-CE61-4F7B-A329-8AA5F6183B4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C64FC8-C13D-4922-A614-40807516B54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2798339" y="4593433"/>
-          <a:ext cx="863744" cy="154554"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2800819" y="4379872"/>
+          <a:ext cx="599805" cy="360950"/>
+          <a:chOff x="2758951" y="3935604"/>
+          <a:chExt cx="611435" cy="358624"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>10315</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>117056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>31233</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>109150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146D4A5D-6A75-49A3-A351-4655740F5FDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3700786" y="4397703"/>
-          <a:ext cx="304800" cy="305859"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="直線コネクタ 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF524D14-BE3A-4385-A005-839022171FBC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="47" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2758951" y="4114916"/>
+            <a:ext cx="336031" cy="112445"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CADD92-6646-4459-92A5-51EDB8569EA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3094982" y="3935604"/>
+            <a:ext cx="275404" cy="358624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>41693</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>134551</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CADD92-6646-4459-92A5-51EDB8569EA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3711246" y="3795574"/>
-          <a:ext cx="304800" cy="305859"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③さん</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>270292</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>3503</xdr:rowOff>
+      <xdr:colOff>10904</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>36236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152480</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33229</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28098</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1978,8 +1763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4244645" y="3342856"/>
-          <a:ext cx="304800" cy="305859"/>
+          <a:off x="4043481" y="3702215"/>
+          <a:ext cx="310367" cy="306089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2032,16 +1817,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>258339</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>43844</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277977</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>279257</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>35938</xdr:rowOff>
+      <xdr:colOff>10854</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2056,8 +1841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4232692" y="2912550"/>
-          <a:ext cx="304800" cy="305859"/>
+          <a:off x="4022513" y="3127194"/>
+          <a:ext cx="308960" cy="306321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,6 +1969,519 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189610</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D2E920-97D0-46FB-9D3F-455D139333C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="-1592" r="34854" b="1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325139" y="1185349"/>
+          <a:ext cx="2186037" cy="1027869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65758</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>117067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252522</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E8F102-46C4-4D55-9783-B3C8B800B091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2068450" y="4980748"/>
+          <a:ext cx="758962" cy="343400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116092</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="671530" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0CCFE7-6D01-4D2E-830C-BDA90990607A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2120662" y="4979773"/>
+          <a:ext cx="671530" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1" cap="none" spc="50">
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF29FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="38100">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="1" cap="none" spc="50">
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF29FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="38100">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230274</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD623A1-A8A6-41CA-AFD3-710DE6044234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1430494" y="3300605"/>
+          <a:ext cx="2232967" cy="369835"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>284982</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229158</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155F2FE7-A75B-4F67-A78F-D8A3E798E3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1429378" y="3892620"/>
+          <a:ext cx="2232967" cy="369835"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98196</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF9EAC6-1501-43E7-961F-9AEADF76A380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1826443" y="3247010"/>
+          <a:ext cx="0" cy="340413"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28018</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5894B1-1BED-4962-9BB8-86ADC91182D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1834822" y="3824925"/>
+          <a:ext cx="0" cy="340413"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32731</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72011</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C550420D-7D8E-4F1C-B65D-A2F633C5BFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1472937" y="3260100"/>
+          <a:ext cx="327321" cy="327321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26186</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE31E68-0459-4DBE-B464-297B03144B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466392" y="3836186"/>
+          <a:ext cx="353505" cy="327319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2551,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B372DF6F-C4DC-4549-8DC8-96CBF7CB774A}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="63" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2565,45 +2863,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -2645,153 +2943,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="54" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="54" t="s">
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="54" t="s">
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="54" t="s">
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="54" t="s">
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="54" t="s">
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="56"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="29"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="45" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="47" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="45" t="s">
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="34" t="s">
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="34" t="s">
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="36"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="32"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="35"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -2935,24 +3233,24 @@
       <c r="T9" s="13">
         <v>1</v>
       </c>
-      <c r="U9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
+      <c r="U9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
       <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="12.75" customHeight="1">
@@ -3016,24 +3314,24 @@
       <c r="T11" s="13">
         <v>2</v>
       </c>
-      <c r="U11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
+      <c r="U11" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
       <c r="AK11" s="14"/>
     </row>
     <row r="12" spans="1:37" ht="12.75" customHeight="1">
@@ -3098,24 +3396,24 @@
       <c r="T13" s="13">
         <v>3</v>
       </c>
-      <c r="U13" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
+      <c r="U13" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
       <c r="AK13" s="14"/>
     </row>
     <row r="14" spans="1:37" ht="12.75" customHeight="1">
@@ -3177,27 +3475,9 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="1">
-        <v>4</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
+      <c r="U15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="AK15" s="14"/>
     </row>
     <row r="16" spans="1:37" ht="12.75" customHeight="1">
@@ -3220,24 +3500,9 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
       <c r="S16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
     </row>
-    <row r="17" spans="1:37" ht="12.75" customHeight="1">
+    <row r="17" spans="1:39" ht="12.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3257,30 +3522,12 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="13">
-        <v>5</v>
-      </c>
-      <c r="U17" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
+      <c r="U17" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AK17" s="14"/>
     </row>
-    <row r="18" spans="1:37" ht="12.75" customHeight="1">
+    <row r="18" spans="1:39" ht="12.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3300,28 +3547,9 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
       <c r="AK18" s="14"/>
     </row>
-    <row r="19" spans="1:37" ht="12.75" customHeight="1">
+    <row r="19" spans="1:39" ht="12.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3341,28 +3569,12 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="14"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
+      <c r="U19" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AK19" s="14"/>
     </row>
-    <row r="20" spans="1:37" ht="12.75" customHeight="1">
+    <row r="20" spans="1:39" ht="12.75" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3382,28 +3594,9 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
       <c r="AK20" s="14"/>
     </row>
-    <row r="21" spans="1:37" ht="12.75" customHeight="1">
+    <row r="21" spans="1:39" ht="12.75" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3423,26 +3616,12 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="14"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
+      <c r="U21" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AK21" s="14"/>
     </row>
-    <row r="22" spans="1:37" ht="12.75" customHeight="1">
+    <row r="22" spans="1:39" ht="12.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3464,7 +3643,9 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
+      <c r="V22" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -3481,7 +3662,7 @@
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
     </row>
-    <row r="23" spans="1:37" ht="12.75" customHeight="1">
+    <row r="23" spans="1:39" ht="12.75" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3520,7 +3701,7 @@
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
     </row>
-    <row r="24" spans="1:37" ht="12.75" customHeight="1">
+    <row r="24" spans="1:39" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3541,7 +3722,9 @@
       <c r="R24" s="14"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
+      <c r="U24" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -3559,7 +3742,7 @@
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
     </row>
-    <row r="25" spans="1:37" ht="12.75" customHeight="1">
+    <row r="25" spans="1:39" ht="12.75" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3598,7 +3781,7 @@
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75" customHeight="1">
+    <row r="26" spans="1:39" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -3618,7 +3801,9 @@
       <c r="R26" s="14"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
+      <c r="U26" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
@@ -3636,7 +3821,7 @@
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
     </row>
-    <row r="27" spans="1:37" ht="12.75" customHeight="1">
+    <row r="27" spans="1:39" ht="12.75" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -3658,7 +3843,9 @@
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
+      <c r="V27" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -3675,7 +3862,7 @@
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
     </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1">
+    <row r="28" spans="1:39" ht="12.75" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -3695,26 +3882,27 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="14"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="14"/>
-    </row>
-    <row r="29" spans="1:37" ht="12.75" customHeight="1">
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="60"/>
+    </row>
+    <row r="29" spans="1:39" ht="12.75" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -3734,8 +3922,12 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="14"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="T29" s="1">
+        <v>4</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
@@ -3751,9 +3943,11 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="14"/>
-    </row>
-    <row r="30" spans="1:37" ht="12.75" customHeight="1">
+      <c r="AK29" s="58"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="60"/>
+    </row>
+    <row r="30" spans="1:39" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -3774,25 +3968,27 @@
       <c r="R30" s="14"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="14"/>
-    </row>
-    <row r="31" spans="1:37" ht="12.75" customHeight="1">
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="60"/>
+    </row>
+    <row r="31" spans="1:39" ht="12.75" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -3813,25 +4009,29 @@
       <c r="R31" s="14"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="14"/>
-    </row>
-    <row r="32" spans="1:37" ht="12.75" customHeight="1">
+      <c r="U31" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" s="25"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="60"/>
+    </row>
+    <row r="32" spans="1:39" ht="12.75" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="13"/>
       <c r="E32" s="13"/>
@@ -3848,23 +4048,25 @@
       <c r="R32" s="14"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="14"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="60"/>
     </row>
     <row r="33" spans="1:43" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
@@ -3883,23 +4085,25 @@
       <c r="R33" s="14"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="14"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="60"/>
     </row>
     <row r="34" spans="1:43" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
@@ -4030,8 +4234,8 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
       <c r="S37" s="13"/>
@@ -4172,61 +4376,61 @@
       <c r="AK40" s="20"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="34" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="34" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="34" t="s">
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="34" t="s">
+      <c r="N41" s="32"/>
+      <c r="O41" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="33" t="s">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="R41" s="33"/>
-      <c r="S41" s="34" t="s">
+      <c r="R41" s="37"/>
+      <c r="S41" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="T41" s="35"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="34" t="s">
+      <c r="T41" s="31"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="W41" s="35"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="34" t="s">
+      <c r="W41" s="31"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="36"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="32"/>
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
@@ -4235,43 +4439,43 @@
       <c r="AQ41" s="21"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="39"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="35"/>
       <c r="AL42" s="21"/>
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
@@ -4280,61 +4484,61 @@
       <c r="AQ42" s="21"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="30">
+      <c r="A43" s="50">
         <v>1</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="30" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30" t="s">
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="30" t="s">
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="32"/>
-      <c r="O43" s="30">
+      <c r="N43" s="51"/>
+      <c r="O43" s="50">
         <v>7</v>
       </c>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="33" t="s">
+      <c r="P43" s="51"/>
+      <c r="Q43" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="33"/>
-      <c r="S43" s="30" t="s">
+      <c r="R43" s="37"/>
+      <c r="S43" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="31"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="30" t="s">
+      <c r="T43" s="52"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="30" t="s">
+      <c r="W43" s="52"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="32"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="51"/>
       <c r="AL43" s="21"/>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
@@ -4343,61 +4547,61 @@
       <c r="AQ43" s="21"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="30">
+      <c r="A44" s="50">
         <v>2</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="30" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="30" t="s">
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="30" t="s">
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="32"/>
-      <c r="O44" s="30" t="s">
+      <c r="N44" s="51"/>
+      <c r="O44" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="33" t="s">
+      <c r="P44" s="51"/>
+      <c r="Q44" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="33"/>
-      <c r="S44" s="30" t="s">
+      <c r="R44" s="37"/>
+      <c r="S44" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="31"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="30" t="s">
+      <c r="T44" s="52"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W44" s="31"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="30" t="s">
+      <c r="W44" s="52"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="32"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="51"/>
       <c r="AL44" s="21"/>
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
@@ -4406,61 +4610,61 @@
       <c r="AQ44" s="21"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="30">
+      <c r="A45" s="50">
         <v>3</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="30" t="s">
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="30" t="s">
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="32"/>
-      <c r="O45" s="30" t="s">
+      <c r="N45" s="51"/>
+      <c r="O45" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33" t="s">
+      <c r="P45" s="51"/>
+      <c r="Q45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="33"/>
-      <c r="S45" s="30" t="s">
+      <c r="R45" s="37"/>
+      <c r="S45" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="30" t="s">
+      <c r="T45" s="52"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="30" t="s">
+      <c r="W45" s="52"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="32"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="52"/>
+      <c r="AH45" s="52"/>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="52"/>
+      <c r="AK45" s="51"/>
       <c r="AL45" s="21"/>
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
@@ -4469,61 +4673,61 @@
       <c r="AQ45" s="21"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="30">
+      <c r="A46" s="50">
         <v>4</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="30" t="s">
+      <c r="B46" s="51"/>
+      <c r="C46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="30" t="s">
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="30" t="s">
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="30" t="s">
+      <c r="N46" s="51"/>
+      <c r="O46" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="30" t="s">
+      <c r="P46" s="51"/>
+      <c r="Q46" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="32"/>
-      <c r="S46" s="30" t="s">
+      <c r="R46" s="51"/>
+      <c r="S46" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="31"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="30" t="s">
+      <c r="T46" s="52"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W46" s="31"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="32"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="51"/>
       <c r="AL46" s="21"/>
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
@@ -4532,61 +4736,61 @@
       <c r="AQ46" s="21"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="30">
+      <c r="A47" s="50">
         <v>5</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="30" t="s">
+      <c r="B47" s="51"/>
+      <c r="C47" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="30" t="s">
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="30" t="s">
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="32"/>
-      <c r="O47" s="30" t="s">
+      <c r="N47" s="51"/>
+      <c r="O47" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33" t="s">
+      <c r="P47" s="51"/>
+      <c r="Q47" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="33"/>
-      <c r="S47" s="30" t="s">
+      <c r="R47" s="37"/>
+      <c r="S47" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="31"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="30" t="s">
+      <c r="T47" s="52"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="30" t="s">
+      <c r="W47" s="52"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="32"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="51"/>
       <c r="AL47" s="21"/>
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
@@ -4595,53 +4799,53 @@
       <c r="AQ47" s="21"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="30">
+      <c r="A48" s="50">
         <v>6</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="30" t="s">
+      <c r="B48" s="51"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="32"/>
-      <c r="O48" s="30" t="s">
+      <c r="N48" s="51"/>
+      <c r="O48" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="33" t="s">
+      <c r="P48" s="51"/>
+      <c r="Q48" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="33"/>
-      <c r="S48" s="30" t="s">
+      <c r="R48" s="37"/>
+      <c r="S48" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T48" s="31"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="32"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="51"/>
       <c r="AL48" s="21"/>
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
@@ -4650,55 +4854,55 @@
       <c r="AQ48" s="21"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="37">
         <v>7</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="33"/>
-      <c r="O49" s="30" t="s">
+      <c r="N49" s="37"/>
+      <c r="O49" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="33" t="s">
+      <c r="P49" s="51"/>
+      <c r="Q49" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="33"/>
-      <c r="S49" s="30" t="s">
+      <c r="R49" s="37"/>
+      <c r="S49" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T49" s="31"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="30" t="s">
+      <c r="T49" s="52"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="32"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="51"/>
       <c r="AL49" s="21"/>
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
@@ -4707,55 +4911,55 @@
       <c r="AQ49" s="21"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="33">
+      <c r="A50" s="37">
         <v>8</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="33"/>
-      <c r="O50" s="30" t="s">
+      <c r="N50" s="37"/>
+      <c r="O50" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="33" t="s">
+      <c r="P50" s="51"/>
+      <c r="Q50" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="33"/>
-      <c r="S50" s="30" t="s">
+      <c r="R50" s="37"/>
+      <c r="S50" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T50" s="31"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="30" t="s">
+      <c r="T50" s="52"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W50" s="31"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="32"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="51"/>
       <c r="AL50" s="21"/>
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
@@ -4764,55 +4968,55 @@
       <c r="AQ50" s="21"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="33">
+      <c r="A51" s="37">
         <v>9</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="33"/>
-      <c r="O51" s="30" t="s">
+      <c r="N51" s="37"/>
+      <c r="O51" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="33" t="s">
+      <c r="P51" s="51"/>
+      <c r="Q51" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="33"/>
-      <c r="S51" s="30" t="s">
+      <c r="R51" s="37"/>
+      <c r="S51" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T51" s="31"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="30" t="s">
+      <c r="T51" s="52"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="W51" s="31"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="32"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="51"/>
       <c r="AL51" s="21"/>
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
@@ -4821,247 +5025,292 @@
       <c r="AQ51" s="21"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="27"/>
-      <c r="AH52" s="27"/>
-      <c r="AI52" s="27"/>
-      <c r="AJ52" s="27"/>
-      <c r="AK52" s="28"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="55"/>
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="55"/>
+      <c r="AJ52" s="55"/>
+      <c r="AK52" s="54"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27"/>
-      <c r="AI53" s="27"/>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="28"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="53"/>
+      <c r="Z53" s="55"/>
+      <c r="AA53" s="55"/>
+      <c r="AB53" s="55"/>
+      <c r="AC53" s="55"/>
+      <c r="AD53" s="55"/>
+      <c r="AE53" s="55"/>
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="55"/>
+      <c r="AH53" s="55"/>
+      <c r="AI53" s="55"/>
+      <c r="AJ53" s="55"/>
+      <c r="AK53" s="54"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
-      <c r="AH54" s="27"/>
-      <c r="AI54" s="27"/>
-      <c r="AJ54" s="27"/>
-      <c r="AK54" s="28"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
+      <c r="AB54" s="55"/>
+      <c r="AC54" s="55"/>
+      <c r="AD54" s="55"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55"/>
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="55"/>
+      <c r="AJ54" s="55"/>
+      <c r="AK54" s="54"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="27"/>
-      <c r="AH55" s="27"/>
-      <c r="AI55" s="27"/>
-      <c r="AJ55" s="27"/>
-      <c r="AK55" s="28"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="55"/>
+      <c r="AB55" s="55"/>
+      <c r="AC55" s="55"/>
+      <c r="AD55" s="55"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="55"/>
+      <c r="AJ55" s="55"/>
+      <c r="AK55" s="54"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="26"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="27"/>
-      <c r="AI56" s="27"/>
-      <c r="AJ56" s="27"/>
-      <c r="AK56" s="28"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="55"/>
+      <c r="AK56" s="54"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AK44"/>
+  <mergeCells count="156">
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AK48"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="I47:L47"/>
@@ -5085,104 +5334,54 @@
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="O45:P45"/>
     <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="V18:AJ18"/>
-    <mergeCell ref="V19:AJ19"/>
-    <mergeCell ref="V20:AJ20"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="AF4:AH5"/>
     <mergeCell ref="U9:AJ9"/>
     <mergeCell ref="U11:AJ11"/>
     <mergeCell ref="U13:AJ13"/>
-    <mergeCell ref="U15:AJ15"/>
-    <mergeCell ref="U17:AJ17"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="AI4:AK5"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:H42"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/設計書/画面レイアウト/ログイン.xlsx
+++ b/設計書/画面レイアウト/ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9C0488-0A4B-4F48-AD9C-62916DB6200A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102428E7-8080-46D3-958D-B984F7E6F647}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,17 +760,17 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,11 +790,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,31 +845,27 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
@@ -2849,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B372DF6F-C4DC-4549-8DC8-96CBF7CB774A}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="63" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="63" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AU25" sqref="AU25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2863,45 +2872,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -2943,153 +2952,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="27" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="27" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="27" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="27" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="27" t="s">
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="27" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="29"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="60"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="42" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="44" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="42" t="s">
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="42" t="s">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="30" t="s">
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="30" t="s">
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="32"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="34"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="35"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="37"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -3233,24 +3242,24 @@
       <c r="T9" s="13">
         <v>1</v>
       </c>
-      <c r="U9" s="57" t="s">
+      <c r="U9" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
       <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="12.75" customHeight="1">
@@ -3314,24 +3323,24 @@
       <c r="T11" s="13">
         <v>2</v>
       </c>
-      <c r="U11" s="57" t="s">
+      <c r="U11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
       <c r="AK11" s="14"/>
     </row>
     <row r="12" spans="1:37" ht="12.75" customHeight="1">
@@ -3396,24 +3405,24 @@
       <c r="T13" s="13">
         <v>3</v>
       </c>
-      <c r="U13" s="57" t="s">
+      <c r="U13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
       <c r="AK13" s="14"/>
     </row>
     <row r="14" spans="1:37" ht="12.75" customHeight="1">
@@ -3899,8 +3908,8 @@
       <c r="AI28" s="24"/>
       <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="60"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="28"/>
     </row>
     <row r="29" spans="1:39" ht="12.75" customHeight="1">
       <c r="A29" s="11"/>
@@ -3943,9 +3952,9 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="60"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="28"/>
     </row>
     <row r="30" spans="1:39" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
@@ -3985,8 +3994,8 @@
       <c r="AI30" s="24"/>
       <c r="AJ30" s="24"/>
       <c r="AK30" s="24"/>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="60"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="28"/>
     </row>
     <row r="31" spans="1:39" ht="12.75" customHeight="1">
       <c r="A31" s="11"/>
@@ -4028,8 +4037,8 @@
       <c r="AI31" s="24"/>
       <c r="AJ31" s="24"/>
       <c r="AK31" s="24"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="60"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="28"/>
     </row>
     <row r="32" spans="1:39" ht="12.75" customHeight="1">
       <c r="A32" s="11"/>
@@ -4065,8 +4074,8 @@
       <c r="AI32" s="24"/>
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="60"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="28"/>
     </row>
     <row r="33" spans="1:43" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
@@ -4102,8 +4111,8 @@
       <c r="AI33" s="24"/>
       <c r="AJ33" s="24"/>
       <c r="AK33" s="24"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="60"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="28"/>
     </row>
     <row r="34" spans="1:43" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
@@ -4234,8 +4243,8 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
       <c r="S37" s="13"/>
@@ -4376,61 +4385,61 @@
       <c r="AK40" s="20"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="30" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="30" t="s">
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="30" t="s">
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="34"/>
+      <c r="O41" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="37" t="s">
+      <c r="P41" s="34"/>
+      <c r="Q41" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R41" s="37"/>
-      <c r="S41" s="30" t="s">
+      <c r="R41" s="42"/>
+      <c r="S41" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T41" s="31"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="30" t="s">
+      <c r="T41" s="33"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="30" t="s">
+      <c r="W41" s="33"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="32"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="34"/>
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
@@ -4439,43 +4448,43 @@
       <c r="AQ41" s="21"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="35"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="37"/>
       <c r="AL42" s="21"/>
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
@@ -4484,61 +4493,61 @@
       <c r="AQ42" s="21"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="50">
+      <c r="A43" s="29">
         <v>1</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="50" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="50" t="s">
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="50">
+      <c r="N43" s="31"/>
+      <c r="O43" s="29">
         <v>7</v>
       </c>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="37" t="s">
+      <c r="P43" s="31"/>
+      <c r="Q43" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="37"/>
-      <c r="S43" s="50" t="s">
+      <c r="R43" s="42"/>
+      <c r="S43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="52"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="50" t="s">
+      <c r="T43" s="30"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="52"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="50" t="s">
+      <c r="W43" s="30"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="52"/>
-      <c r="AI43" s="52"/>
-      <c r="AJ43" s="52"/>
-      <c r="AK43" s="51"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="62"/>
+      <c r="AE43" s="62"/>
+      <c r="AF43" s="62"/>
+      <c r="AG43" s="62"/>
+      <c r="AH43" s="62"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="62"/>
+      <c r="AK43" s="63"/>
       <c r="AL43" s="21"/>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
@@ -4547,61 +4556,61 @@
       <c r="AQ43" s="21"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="50">
+      <c r="A44" s="29">
         <v>2</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="50" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="50" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="50" t="s">
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="51"/>
-      <c r="O44" s="50" t="s">
+      <c r="N44" s="31"/>
+      <c r="O44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="37" t="s">
+      <c r="P44" s="31"/>
+      <c r="Q44" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="37"/>
-      <c r="S44" s="50" t="s">
+      <c r="R44" s="42"/>
+      <c r="S44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="52"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="50" t="s">
+      <c r="T44" s="30"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W44" s="52"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="50" t="s">
+      <c r="W44" s="30"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52"/>
-      <c r="AI44" s="52"/>
-      <c r="AJ44" s="52"/>
-      <c r="AK44" s="51"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="62"/>
+      <c r="AH44" s="62"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="63"/>
       <c r="AL44" s="21"/>
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
@@ -4610,61 +4619,61 @@
       <c r="AQ44" s="21"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="50">
+      <c r="A45" s="29">
         <v>3</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="50" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="50" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="50" t="s">
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="51"/>
-      <c r="O45" s="50" t="s">
+      <c r="N45" s="31"/>
+      <c r="O45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="37" t="s">
+      <c r="P45" s="31"/>
+      <c r="Q45" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="37"/>
-      <c r="S45" s="50" t="s">
+      <c r="R45" s="42"/>
+      <c r="S45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T45" s="52"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="50" t="s">
+      <c r="T45" s="30"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W45" s="52"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="50" t="s">
+      <c r="W45" s="30"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="52"/>
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="52"/>
-      <c r="AK45" s="51"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="62"/>
+      <c r="AH45" s="62"/>
+      <c r="AI45" s="62"/>
+      <c r="AJ45" s="62"/>
+      <c r="AK45" s="63"/>
       <c r="AL45" s="21"/>
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
@@ -4673,61 +4682,61 @@
       <c r="AQ45" s="21"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="50">
+      <c r="A46" s="29">
         <v>4</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="50" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="50" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="50" t="s">
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="51"/>
-      <c r="O46" s="50" t="s">
+      <c r="N46" s="31"/>
+      <c r="O46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="50" t="s">
+      <c r="P46" s="31"/>
+      <c r="Q46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="51"/>
-      <c r="S46" s="50" t="s">
+      <c r="R46" s="31"/>
+      <c r="S46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="52"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="50" t="s">
+      <c r="T46" s="30"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W46" s="52"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="50" t="s">
+      <c r="W46" s="30"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52"/>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="51"/>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="62"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="62"/>
+      <c r="AE46" s="62"/>
+      <c r="AF46" s="62"/>
+      <c r="AG46" s="62"/>
+      <c r="AH46" s="62"/>
+      <c r="AI46" s="62"/>
+      <c r="AJ46" s="62"/>
+      <c r="AK46" s="63"/>
       <c r="AL46" s="21"/>
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
@@ -4736,61 +4745,61 @@
       <c r="AQ46" s="21"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="50">
+      <c r="A47" s="29">
         <v>5</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="50" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="50" t="s">
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="51"/>
-      <c r="O47" s="50" t="s">
+      <c r="N47" s="31"/>
+      <c r="O47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="37" t="s">
+      <c r="P47" s="31"/>
+      <c r="Q47" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="37"/>
-      <c r="S47" s="50" t="s">
+      <c r="R47" s="42"/>
+      <c r="S47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="52"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="50" t="s">
+      <c r="T47" s="30"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W47" s="52"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="50" t="s">
+      <c r="W47" s="30"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52"/>
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="51"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="63"/>
       <c r="AL47" s="21"/>
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
@@ -4799,53 +4808,53 @@
       <c r="AQ47" s="21"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="50">
+      <c r="A48" s="29">
         <v>6</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="50" t="s">
+      <c r="B48" s="31"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="51"/>
-      <c r="O48" s="50" t="s">
+      <c r="N48" s="31"/>
+      <c r="O48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="37" t="s">
+      <c r="P48" s="31"/>
+      <c r="Q48" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="37"/>
-      <c r="S48" s="50" t="s">
+      <c r="R48" s="42"/>
+      <c r="S48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T48" s="52"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="51"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="31"/>
       <c r="AL48" s="21"/>
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
@@ -4854,55 +4863,55 @@
       <c r="AQ48" s="21"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="37">
+      <c r="A49" s="42">
         <v>7</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="37"/>
-      <c r="O49" s="50" t="s">
+      <c r="N49" s="42"/>
+      <c r="O49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="37" t="s">
+      <c r="P49" s="31"/>
+      <c r="Q49" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="50" t="s">
+      <c r="R49" s="42"/>
+      <c r="S49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T49" s="52"/>
-      <c r="U49" s="51"/>
-      <c r="V49" s="50" t="s">
+      <c r="T49" s="30"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W49" s="52"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="51"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="31"/>
       <c r="AL49" s="21"/>
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
@@ -4911,55 +4920,55 @@
       <c r="AQ49" s="21"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="37">
+      <c r="A50" s="42">
         <v>8</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37" t="s">
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="37"/>
-      <c r="O50" s="50" t="s">
+      <c r="N50" s="42"/>
+      <c r="O50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="37" t="s">
+      <c r="P50" s="31"/>
+      <c r="Q50" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="37"/>
-      <c r="S50" s="50" t="s">
+      <c r="R50" s="42"/>
+      <c r="S50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T50" s="52"/>
-      <c r="U50" s="51"/>
-      <c r="V50" s="50" t="s">
+      <c r="T50" s="30"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W50" s="52"/>
-      <c r="X50" s="51"/>
-      <c r="Y50" s="50"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="52"/>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="51"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="31"/>
       <c r="AL50" s="21"/>
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
@@ -4968,55 +4977,55 @@
       <c r="AQ50" s="21"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="37">
+      <c r="A51" s="42">
         <v>9</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37" t="s">
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="37"/>
-      <c r="O51" s="50" t="s">
+      <c r="N51" s="42"/>
+      <c r="O51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="37" t="s">
+      <c r="P51" s="31"/>
+      <c r="Q51" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="37"/>
-      <c r="S51" s="50" t="s">
+      <c r="R51" s="42"/>
+      <c r="S51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T51" s="52"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="50" t="s">
+      <c r="T51" s="30"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W51" s="52"/>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="50"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="52"/>
-      <c r="AG51" s="52"/>
-      <c r="AH51" s="52"/>
-      <c r="AI51" s="52"/>
-      <c r="AJ51" s="52"/>
-      <c r="AK51" s="51"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="31"/>
       <c r="AL51" s="21"/>
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
@@ -5025,292 +5034,250 @@
       <c r="AQ51" s="21"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="55"/>
-      <c r="AB52" s="55"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="55"/>
-      <c r="AJ52" s="55"/>
-      <c r="AK52" s="54"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="40"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="55"/>
-      <c r="AA53" s="55"/>
-      <c r="AB53" s="55"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="55"/>
-      <c r="AJ53" s="55"/>
-      <c r="AK53" s="54"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="40"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="55"/>
-      <c r="AB54" s="55"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="55"/>
-      <c r="AJ54" s="55"/>
-      <c r="AK54" s="54"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="40"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="55"/>
-      <c r="AJ55" s="55"/>
-      <c r="AK55" s="54"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="40"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="55"/>
-      <c r="AJ56" s="55"/>
-      <c r="AK56" s="54"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="40"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="AF4:AH5"/>
+    <mergeCell ref="U9:AJ9"/>
+    <mergeCell ref="U11:AJ11"/>
+    <mergeCell ref="U13:AJ13"/>
+    <mergeCell ref="AI4:AK5"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:H42"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AK44"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="I47:L47"/>
@@ -5335,51 +5302,93 @@
     <mergeCell ref="O45:P45"/>
     <mergeCell ref="Q45:R45"/>
     <mergeCell ref="V46:X46"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="U9:AJ9"/>
-    <mergeCell ref="U11:AJ11"/>
-    <mergeCell ref="U13:AJ13"/>
-    <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y47:AK47"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/ログイン.xlsx
+++ b/設計書/画面レイアウト/ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102428E7-8080-46D3-958D-B984F7E6F647}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E897FF75-25B4-4CAF-84A1-8FE145727AC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -92,10 +92,6 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ー</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -457,6 +453,13 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>川口</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -707,7 +710,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -763,13 +766,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,72 +844,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -865,6 +856,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2858,59 +2864,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B372DF6F-C4DC-4549-8DC8-96CBF7CB774A}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="63" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AU25" sqref="AU25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="63" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.08984375" style="23" customWidth="1"/>
-    <col min="7" max="37" width="4.08984375" style="1" customWidth="1"/>
+    <col min="7" max="36" width="4.08984375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="8.08984375" style="1" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -2952,153 +2959,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="58" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="58" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="58" t="s">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="58" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="58" t="s">
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="58" t="s">
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="58" t="s">
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="60"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="44"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="45" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="64">
+        <v>43715</v>
+      </c>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="51"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="37"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="54"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -3159,7 +3166,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="14"/>
       <c r="S7" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
@@ -3242,24 +3249,24 @@
       <c r="T9" s="13">
         <v>1</v>
       </c>
-      <c r="U9" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
+      <c r="U9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
       <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="12.75" customHeight="1">
@@ -3323,24 +3330,24 @@
       <c r="T11" s="13">
         <v>2</v>
       </c>
-      <c r="U11" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
+      <c r="U11" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
       <c r="AK11" s="14"/>
     </row>
     <row r="12" spans="1:37" ht="12.75" customHeight="1">
@@ -3405,24 +3412,24 @@
       <c r="T13" s="13">
         <v>3</v>
       </c>
-      <c r="U13" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
+      <c r="U13" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
       <c r="AK13" s="14"/>
     </row>
     <row r="14" spans="1:37" ht="12.75" customHeight="1">
@@ -3485,7 +3492,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="13"/>
       <c r="U15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK15" s="14"/>
     </row>
@@ -3532,7 +3539,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="13"/>
       <c r="U17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK17" s="14"/>
     </row>
@@ -3579,7 +3586,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="13"/>
       <c r="U19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK19" s="14"/>
     </row>
@@ -3626,7 +3633,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="13"/>
       <c r="U21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK21" s="14"/>
     </row>
@@ -3653,7 +3660,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -3732,7 +3739,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -3811,7 +3818,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -3853,7 +3860,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
@@ -3935,7 +3942,7 @@
         <v>4</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
@@ -4019,7 +4026,7 @@
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
       <c r="U31" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V31" s="25"/>
       <c r="W31" s="24"/>
@@ -4243,8 +4250,8 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
       <c r="S37" s="13"/>
@@ -4385,61 +4392,61 @@
       <c r="AK40" s="20"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="32" t="s">
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="32" t="s">
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="32" t="s">
+      <c r="N41" s="51"/>
+      <c r="O41" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="34"/>
-      <c r="O41" s="32" t="s">
+      <c r="P41" s="51"/>
+      <c r="Q41" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="42" t="s">
+      <c r="R41" s="48"/>
+      <c r="S41" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R41" s="42"/>
-      <c r="S41" s="32" t="s">
+      <c r="T41" s="50"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="T41" s="33"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="32" t="s">
+      <c r="W41" s="50"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="W41" s="33"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="33"/>
-      <c r="AJ41" s="33"/>
-      <c r="AK41" s="34"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="51"/>
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
@@ -4448,43 +4455,43 @@
       <c r="AQ41" s="21"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="37"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="54"/>
       <c r="AL42" s="21"/>
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
@@ -4493,61 +4500,61 @@
       <c r="AQ42" s="21"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="29">
+      <c r="A43" s="45">
         <v>1</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43" s="31"/>
-      <c r="O43" s="29">
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="46"/>
+      <c r="O43" s="45">
         <v>7</v>
       </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="42"/>
-      <c r="S43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T43" s="30"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" s="30"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="63"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="48"/>
+      <c r="S43" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T43" s="47"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W43" s="47"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="59"/>
       <c r="AL43" s="21"/>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
@@ -4556,61 +4563,61 @@
       <c r="AQ43" s="21"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="29">
+      <c r="A44" s="45">
         <v>2</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="29" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="42"/>
-      <c r="S44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T44" s="30"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W44" s="30"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="63"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="46"/>
+      <c r="O44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" s="48"/>
+      <c r="S44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T44" s="47"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W44" s="47"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="58"/>
+      <c r="AK44" s="59"/>
       <c r="AL44" s="21"/>
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
@@ -4619,61 +4626,61 @@
       <c r="AQ44" s="21"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="29">
+      <c r="A45" s="45">
         <v>3</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="31"/>
-      <c r="O45" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="42"/>
-      <c r="S45" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T45" s="30"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W45" s="30"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="63"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="46"/>
+      <c r="O45" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" s="48"/>
+      <c r="S45" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T45" s="47"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W45" s="47"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="59"/>
       <c r="AL45" s="21"/>
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
@@ -4682,61 +4689,61 @@
       <c r="AQ45" s="21"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="29">
+      <c r="A46" s="45">
         <v>4</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="31"/>
-      <c r="O46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="31"/>
-      <c r="S46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T46" s="30"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W46" s="30"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="62"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
-      <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="62"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="63"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="46"/>
+      <c r="O46" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="46"/>
+      <c r="S46" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T46" s="47"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W46" s="47"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="58"/>
+      <c r="AK46" s="59"/>
       <c r="AL46" s="21"/>
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
@@ -4745,61 +4752,61 @@
       <c r="AQ46" s="21"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="29">
+      <c r="A47" s="45">
         <v>5</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="46"/>
+      <c r="O47" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R47" s="48"/>
+      <c r="S47" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T47" s="47"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W47" s="47"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="31"/>
-      <c r="O47" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="42"/>
-      <c r="S47" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T47" s="30"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W47" s="30"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
-      <c r="AD47" s="62"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="63"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="58"/>
+      <c r="AK47" s="59"/>
       <c r="AL47" s="21"/>
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
@@ -4808,53 +4815,53 @@
       <c r="AQ47" s="21"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="29">
+      <c r="A48" s="45">
         <v>6</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="31"/>
-      <c r="O48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="42"/>
-      <c r="S48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T48" s="30"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="31"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="46"/>
+      <c r="O48" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="48"/>
+      <c r="S48" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T48" s="47"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="46"/>
       <c r="AL48" s="21"/>
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
@@ -4863,55 +4870,55 @@
       <c r="AQ48" s="21"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="42">
+      <c r="A49" s="48">
         <v>7</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="42"/>
-      <c r="O49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="42"/>
-      <c r="S49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T49" s="30"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W49" s="30"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="30"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="31"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="48"/>
+      <c r="O49" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R49" s="48"/>
+      <c r="S49" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W49" s="47"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="46"/>
       <c r="AL49" s="21"/>
       <c r="AM49" s="21"/>
       <c r="AN49" s="21"/>
@@ -4920,55 +4927,55 @@
       <c r="AQ49" s="21"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="42">
+      <c r="A50" s="48">
         <v>8</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="42"/>
-      <c r="O50" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="42"/>
-      <c r="S50" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T50" s="30"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W50" s="30"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="30"/>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="30"/>
-      <c r="AH50" s="30"/>
-      <c r="AI50" s="30"/>
-      <c r="AJ50" s="30"/>
-      <c r="AK50" s="31"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="48"/>
+      <c r="O50" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R50" s="48"/>
+      <c r="S50" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W50" s="47"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="46"/>
       <c r="AL50" s="21"/>
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
@@ -4977,55 +4984,55 @@
       <c r="AQ50" s="21"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="42">
+      <c r="A51" s="48">
         <v>9</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="42"/>
-      <c r="O51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="42"/>
-      <c r="S51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T51" s="30"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" s="30"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30"/>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="31"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="48"/>
+      <c r="O51" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" s="48"/>
+      <c r="S51" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W51" s="47"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="47"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="46"/>
       <c r="AL51" s="21"/>
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
@@ -5034,217 +5041,325 @@
       <c r="AQ51" s="21"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="40"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62"/>
+      <c r="AB52" s="62"/>
+      <c r="AC52" s="62"/>
+      <c r="AD52" s="62"/>
+      <c r="AE52" s="62"/>
+      <c r="AF52" s="62"/>
+      <c r="AG52" s="62"/>
+      <c r="AH52" s="62"/>
+      <c r="AI52" s="62"/>
+      <c r="AJ52" s="62"/>
+      <c r="AK52" s="61"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="38"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="40"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="63"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="62"/>
+      <c r="AE53" s="62"/>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="62"/>
+      <c r="AH53" s="62"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="62"/>
+      <c r="AK53" s="61"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="38"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="40"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="62"/>
+      <c r="AB54" s="62"/>
+      <c r="AC54" s="62"/>
+      <c r="AD54" s="62"/>
+      <c r="AE54" s="62"/>
+      <c r="AF54" s="62"/>
+      <c r="AG54" s="62"/>
+      <c r="AH54" s="62"/>
+      <c r="AI54" s="62"/>
+      <c r="AJ54" s="62"/>
+      <c r="AK54" s="61"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="38"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="40"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="62"/>
+      <c r="AC55" s="62"/>
+      <c r="AD55" s="62"/>
+      <c r="AE55" s="62"/>
+      <c r="AF55" s="62"/>
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="62"/>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="61"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="38"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="40"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="63"/>
+      <c r="X56" s="63"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
+      <c r="AD56" s="62"/>
+      <c r="AE56" s="62"/>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="62"/>
+      <c r="AI56" s="62"/>
+      <c r="AJ56" s="62"/>
+      <c r="AK56" s="61"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AK44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -5269,126 +5384,18 @@
     <mergeCell ref="A4:H5"/>
     <mergeCell ref="I4:O5"/>
     <mergeCell ref="P4:R5"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
